--- a/汽柴煤油2.0/eta/SC期货指数-Brent原油期货价格_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/SC期货指数-Brent原油期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-7.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="C3" t="n">
-        <v>4.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>4.5</v>
       </c>
       <c r="C4" t="n">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>8.9</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>5.6</v>
       </c>
       <c r="C6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>0.9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -601,7 +601,7 @@
         <v>5.2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
